--- a/BackTest/2019-10-17 BackTest XVG.xlsx
+++ b/BackTest/2019-10-17 BackTest XVG.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.7600000000000042</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-47.99999999999961</v>
+      </c>
       <c r="L12" t="n">
         <v>7.969999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.7900000000000045</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-56.86274509803923</v>
+      </c>
       <c r="L13" t="n">
         <v>7.942999999999998</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.9200000000000053</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-22.58064516129009</v>
+      </c>
       <c r="L14" t="n">
         <v>7.926999999999998</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.930000000000005</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-20.63492063492045</v>
+      </c>
       <c r="L15" t="n">
         <v>7.913999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.930000000000005</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-9.090909090909033</v>
+      </c>
       <c r="L16" t="n">
         <v>7.900999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.9400000000000048</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>7.897</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.9500000000000046</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-11.76470588235293</v>
+      </c>
       <c r="L18" t="n">
         <v>7.881</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.9500000000000046</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-9.09090909090914</v>
+      </c>
       <c r="L19" t="n">
         <v>7.877</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.130000000000004</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>78.37837837837837</v>
+      </c>
       <c r="L20" t="n">
         <v>7.892</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.130000000000004</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>78.37837837837837</v>
+      </c>
       <c r="L21" t="n">
         <v>7.921000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.370000000000005</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>96.5517241379311</v>
+      </c>
       <c r="L22" t="n">
         <v>7.974000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.370000000000005</v>
       </c>
       <c r="K23" t="n">
-        <v>26.12612612612614</v>
+        <v>95.55555555555564</v>
       </c>
       <c r="L23" t="n">
         <v>8.030000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>1.610000000000005</v>
       </c>
       <c r="K24" t="n">
-        <v>2.25563909774431</v>
+        <v>26.47058823529408</v>
       </c>
       <c r="L24" t="n">
         <v>8.049000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>1.850000000000005</v>
       </c>
       <c r="K25" t="n">
-        <v>18.70967741935489</v>
+        <v>45.65217391304348</v>
       </c>
       <c r="L25" t="n">
         <v>8.091000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>1.850000000000005</v>
       </c>
       <c r="K26" t="n">
-        <v>18.70967741935489</v>
+        <v>45.05494505494506</v>
       </c>
       <c r="L26" t="n">
         <v>8.133000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>2.090000000000005</v>
       </c>
       <c r="K27" t="n">
-        <v>7.602339181286536</v>
+        <v>15.78947368421049</v>
       </c>
       <c r="L27" t="n">
         <v>8.150000000000002</v>
@@ -1662,7 +1684,7 @@
         <v>2.260000000000005</v>
       </c>
       <c r="K28" t="n">
-        <v>-8.474576271186454</v>
+        <v>0.7633587786259376</v>
       </c>
       <c r="L28" t="n">
         <v>8.151000000000002</v>
@@ -1711,7 +1733,7 @@
         <v>2.410000000000005</v>
       </c>
       <c r="K29" t="n">
-        <v>-10.00000000000002</v>
+        <v>-25</v>
       </c>
       <c r="L29" t="n">
         <v>8.137000000000002</v>
@@ -1760,7 +1782,7 @@
         <v>2.510000000000006</v>
       </c>
       <c r="K30" t="n">
-        <v>-3.703703703703714</v>
+        <v>-15.94202898550721</v>
       </c>
       <c r="L30" t="n">
         <v>8.115000000000002</v>
@@ -1809,7 +1831,7 @@
         <v>2.510000000000006</v>
       </c>
       <c r="K31" t="n">
-        <v>4.000000000000012</v>
+        <v>-40.3508771929824</v>
       </c>
       <c r="L31" t="n">
         <v>8.093000000000002</v>
@@ -1860,7 +1882,7 @@
         <v>2.580000000000006</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-43.80165289256194</v>
       </c>
       <c r="L32" t="n">
         <v>8.040000000000003</v>
@@ -1911,7 +1933,7 @@
         <v>2.590000000000006</v>
       </c>
       <c r="K33" t="n">
-        <v>1.111111111111136</v>
+        <v>-30.61224489795912</v>
       </c>
       <c r="L33" t="n">
         <v>7.986000000000002</v>
@@ -1962,7 +1984,7 @@
         <v>2.590000000000006</v>
       </c>
       <c r="K34" t="n">
-        <v>-6.586826347305405</v>
+        <v>-72.97297297297287</v>
       </c>
       <c r="L34" t="n">
         <v>7.956000000000003</v>
@@ -2013,7 +2035,7 @@
         <v>2.610000000000007</v>
       </c>
       <c r="K35" t="n">
-        <v>-8.333333333333359</v>
+        <v>-73.68421052631571</v>
       </c>
       <c r="L35" t="n">
         <v>7.900000000000003</v>
@@ -2064,7 +2086,7 @@
         <v>2.640000000000007</v>
       </c>
       <c r="K36" t="n">
-        <v>-6.432748538011708</v>
+        <v>-52.72727272727258</v>
       </c>
       <c r="L36" t="n">
         <v>7.847000000000003</v>
@@ -2115,7 +2137,7 @@
         <v>2.640000000000007</v>
       </c>
       <c r="K37" t="n">
-        <v>-7.058823529411764</v>
+        <v>-31.57894736842094</v>
       </c>
       <c r="L37" t="n">
         <v>7.818000000000002</v>
@@ -2166,7 +2188,7 @@
         <v>2.640000000000007</v>
       </c>
       <c r="K38" t="n">
-        <v>-6.508875739644981</v>
+        <v>13.0434782608696</v>
       </c>
       <c r="L38" t="n">
         <v>7.806000000000002</v>
@@ -2217,7 +2239,7 @@
         <v>2.640000000000007</v>
       </c>
       <c r="K39" t="n">
-        <v>-6.508875739644981</v>
+        <v>-53.84615384615374</v>
       </c>
       <c r="L39" t="n">
         <v>7.809000000000002</v>
@@ -2268,7 +2290,7 @@
         <v>2.670000000000007</v>
       </c>
       <c r="K40" t="n">
-        <v>-20.77922077922076</v>
+        <v>-62.49999999999994</v>
       </c>
       <c r="L40" t="n">
         <v>7.799000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>2.700000000000007</v>
       </c>
       <c r="K41" t="n">
-        <v>-18.4713375796178</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>7.792</v>
@@ -2370,7 +2392,7 @@
         <v>2.740000000000007</v>
       </c>
       <c r="K42" t="n">
-        <v>-41.60583941605833</v>
+        <v>-20</v>
       </c>
       <c r="L42" t="n">
         <v>7.788000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>2.740000000000007</v>
       </c>
       <c r="K43" t="n">
-        <v>-41.60583941605833</v>
+        <v>-20</v>
       </c>
       <c r="L43" t="n">
         <v>7.785000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>2.740000000000007</v>
       </c>
       <c r="K44" t="n">
-        <v>-29.20353982300879</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L44" t="n">
         <v>7.782000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>2.860000000000007</v>
       </c>
       <c r="K45" t="n">
-        <v>-68.31683168316819</v>
+        <v>-72.72727272727259</v>
       </c>
       <c r="L45" t="n">
         <v>7.769000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>2.940000000000007</v>
       </c>
       <c r="K46" t="n">
-        <v>-55.96330275229347</v>
+        <v>-26.66666666666663</v>
       </c>
       <c r="L46" t="n">
         <v>7.761000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>3.040000000000007</v>
       </c>
       <c r="K47" t="n">
-        <v>-49.47368421052619</v>
+        <v>-44.99999999999989</v>
       </c>
       <c r="L47" t="n">
         <v>7.743000000000002</v>
@@ -2676,7 +2698,7 @@
         <v>3.040000000000007</v>
       </c>
       <c r="K48" t="n">
-        <v>-38.46153846153834</v>
+        <v>-44.99999999999989</v>
       </c>
       <c r="L48" t="n">
         <v>7.725000000000003</v>
@@ -2727,7 +2749,7 @@
         <v>3.210000000000007</v>
       </c>
       <c r="K49" t="n">
-        <v>2.500000000000053</v>
+        <v>3.703703703703789</v>
       </c>
       <c r="L49" t="n">
         <v>7.724000000000004</v>
@@ -2782,7 +2804,7 @@
         <v>3.210000000000007</v>
       </c>
       <c r="K50" t="n">
-        <v>-11.42857142857142</v>
+        <v>-1.960784313725449</v>
       </c>
       <c r="L50" t="n">
         <v>7.726000000000004</v>
@@ -2841,7 +2863,7 @@
         <v>3.370000000000007</v>
       </c>
       <c r="K51" t="n">
-        <v>-27.90697674418603</v>
+        <v>-20.63492063492062</v>
       </c>
       <c r="L51" t="n">
         <v>7.709000000000005</v>
@@ -2898,7 +2920,7 @@
         <v>3.380000000000007</v>
       </c>
       <c r="K52" t="n">
-        <v>-22.49999999999995</v>
+        <v>-21.87499999999996</v>
       </c>
       <c r="L52" t="n">
         <v>7.695000000000005</v>
@@ -2955,7 +2977,7 @@
         <v>3.390000000000007</v>
       </c>
       <c r="K53" t="n">
-        <v>-22.49999999999995</v>
+        <v>-23.07692307692301</v>
       </c>
       <c r="L53" t="n">
         <v>7.680000000000004</v>
@@ -3010,7 +3032,7 @@
         <v>3.570000000000007</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>21.12676056338036</v>
       </c>
       <c r="L54" t="n">
         <v>7.683000000000004</v>
@@ -3067,7 +3089,7 @@
         <v>3.750000000000006</v>
       </c>
       <c r="K55" t="n">
-        <v>-14.03508771929818</v>
+        <v>-13.5802469135802</v>
       </c>
       <c r="L55" t="n">
         <v>7.680000000000004</v>
@@ -3124,7 +3146,7 @@
         <v>3.760000000000007</v>
       </c>
       <c r="K56" t="n">
-        <v>-17.85714285714287</v>
+        <v>-2.777777777777843</v>
       </c>
       <c r="L56" t="n">
         <v>7.668000000000004</v>
@@ -3181,7 +3203,7 @@
         <v>3.760000000000007</v>
       </c>
       <c r="K57" t="n">
-        <v>-17.85714285714287</v>
+        <v>-2.777777777777843</v>
       </c>
       <c r="L57" t="n">
         <v>7.666000000000002</v>
@@ -3238,7 +3260,7 @@
         <v>3.780000000000006</v>
       </c>
       <c r="K58" t="n">
-        <v>-19.29824561403507</v>
+        <v>-36.84210526315793</v>
       </c>
       <c r="L58" t="n">
         <v>7.662000000000002</v>
@@ -3295,7 +3317,7 @@
         <v>3.810000000000007</v>
       </c>
       <c r="K59" t="n">
-        <v>-21.36752136752137</v>
+        <v>-40.00000000000006</v>
       </c>
       <c r="L59" t="n">
         <v>7.638000000000001</v>
@@ -3352,7 +3374,7 @@
         <v>3.890000000000007</v>
       </c>
       <c r="K60" t="n">
-        <v>-11.47540983606555</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>7.622</v>
@@ -3409,7 +3431,7 @@
         <v>3.890000000000007</v>
       </c>
       <c r="K61" t="n">
-        <v>-14.28571428571428</v>
+        <v>1.960784313725449</v>
       </c>
       <c r="L61" t="n">
         <v>7.622</v>
@@ -3466,7 +3488,7 @@
         <v>3.990000000000006</v>
       </c>
       <c r="K62" t="n">
-        <v>-18.39999999999998</v>
+        <v>-13.33333333333335</v>
       </c>
       <c r="L62" t="n">
         <v>7.613</v>
@@ -3523,7 +3545,7 @@
         <v>4.250000000000006</v>
       </c>
       <c r="K63" t="n">
-        <v>1.986754966887435</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>7.631</v>
@@ -3580,7 +3602,7 @@
         <v>4.270000000000007</v>
       </c>
       <c r="K64" t="n">
-        <v>0.6535947712418164</v>
+        <v>30.7692307692306</v>
       </c>
       <c r="L64" t="n">
         <v>7.629</v>
@@ -3637,7 +3659,7 @@
         <v>4.300000000000007</v>
       </c>
       <c r="K65" t="n">
-        <v>11.11111111111112</v>
+        <v>37.03703703703707</v>
       </c>
       <c r="L65" t="n">
         <v>7.647999999999999</v>
@@ -3694,7 +3716,7 @@
         <v>4.400000000000007</v>
       </c>
       <c r="K66" t="n">
-        <v>12.32876712328771</v>
+        <v>46.87500000000006</v>
       </c>
       <c r="L66" t="n">
         <v>7.678</v>
@@ -3751,7 +3773,7 @@
         <v>4.410000000000007</v>
       </c>
       <c r="K67" t="n">
-        <v>21.16788321167883</v>
+        <v>52.38095238095233</v>
       </c>
       <c r="L67" t="n">
         <v>7.709000000000001</v>
@@ -3802,7 +3824,7 @@
         <v>4.420000000000007</v>
       </c>
       <c r="K68" t="n">
-        <v>20.28985507246379</v>
+        <v>57.37704918032792</v>
       </c>
       <c r="L68" t="n">
         <v>7.741000000000001</v>
@@ -3853,7 +3875,7 @@
         <v>4.420000000000007</v>
       </c>
       <c r="K69" t="n">
-        <v>9.090909090909118</v>
+        <v>50.94339622641516</v>
       </c>
       <c r="L69" t="n">
         <v>7.776000000000002</v>
@@ -3904,7 +3926,7 @@
         <v>4.430000000000007</v>
       </c>
       <c r="K70" t="n">
-        <v>9.836065573770503</v>
+        <v>51.85185185185189</v>
       </c>
       <c r="L70" t="n">
         <v>7.804000000000002</v>
@@ -3959,7 +3981,7 @@
         <v>4.430000000000007</v>
       </c>
       <c r="K71" t="n">
-        <v>26.41509433962267</v>
+        <v>86.36363636363626</v>
       </c>
       <c r="L71" t="n">
         <v>7.832000000000003</v>
@@ -4016,7 +4038,7 @@
         <v>4.430000000000007</v>
       </c>
       <c r="K72" t="n">
-        <v>27.61904761904763</v>
+        <v>66.6666666666665</v>
       </c>
       <c r="L72" t="n">
         <v>7.870000000000002</v>
@@ -4073,7 +4095,7 @@
         <v>4.440000000000007</v>
       </c>
       <c r="K73" t="n">
-        <v>29.52380952380949</v>
+        <v>88.2352941176473</v>
       </c>
       <c r="L73" t="n">
         <v>7.883000000000001</v>
@@ -4130,7 +4152,7 @@
         <v>4.440000000000007</v>
       </c>
       <c r="K74" t="n">
-        <v>14.94252873563217</v>
+        <v>85.71428571428599</v>
       </c>
       <c r="L74" t="n">
         <v>7.898000000000001</v>
@@ -4187,7 +4209,7 @@
         <v>4.520000000000007</v>
       </c>
       <c r="K75" t="n">
-        <v>50.64935064935058</v>
+        <v>83.33333333333358</v>
       </c>
       <c r="L75" t="n">
         <v>7.918000000000002</v>
@@ -4244,7 +4266,7 @@
         <v>4.520000000000007</v>
       </c>
       <c r="K76" t="n">
-        <v>52.63157894736848</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L76" t="n">
         <v>7.928000000000002</v>
@@ -4301,7 +4323,7 @@
         <v>4.610000000000007</v>
       </c>
       <c r="K77" t="n">
-        <v>36.47058823529419</v>
+        <v>5.263157894736744</v>
       </c>
       <c r="L77" t="n">
         <v>7.928000000000002</v>
@@ -4358,7 +4380,7 @@
         <v>4.700000000000006</v>
       </c>
       <c r="K78" t="n">
-        <v>45.65217391304348</v>
+        <v>35.71428571428567</v>
       </c>
       <c r="L78" t="n">
         <v>7.938000000000001</v>
@@ -4415,7 +4437,7 @@
         <v>4.710000000000006</v>
       </c>
       <c r="K79" t="n">
-        <v>51.11111111111114</v>
+        <v>35.71428571428567</v>
       </c>
       <c r="L79" t="n">
         <v>7.949000000000001</v>
@@ -4472,7 +4494,7 @@
         <v>4.710000000000006</v>
       </c>
       <c r="K80" t="n">
-        <v>46.34146341463416</v>
+        <v>35.71428571428567</v>
       </c>
       <c r="L80" t="n">
         <v>7.959000000000001</v>
@@ -4523,7 +4545,7 @@
         <v>4.950000000000006</v>
       </c>
       <c r="K81" t="n">
-        <v>58.49056603773588</v>
+        <v>65.3846153846154</v>
       </c>
       <c r="L81" t="n">
         <v>7.993000000000002</v>
@@ -4574,7 +4596,7 @@
         <v>5.200000000000006</v>
       </c>
       <c r="K82" t="n">
-        <v>38.84297520661156</v>
+        <v>10.5263157894737</v>
       </c>
       <c r="L82" t="n">
         <v>8.002000000000002</v>
@@ -4625,7 +4647,7 @@
         <v>5.440000000000007</v>
       </c>
       <c r="K83" t="n">
-        <v>37.81512605042018</v>
+        <v>32.00000000000003</v>
       </c>
       <c r="L83" t="n">
         <v>8.034000000000002</v>
@@ -4676,7 +4698,7 @@
         <v>6.140000000000007</v>
       </c>
       <c r="K84" t="n">
-        <v>-12.29946524064169</v>
+        <v>-28.39506172839506</v>
       </c>
       <c r="L84" t="n">
         <v>7.996000000000002</v>
@@ -4727,7 +4749,7 @@
         <v>6.820000000000007</v>
       </c>
       <c r="K85" t="n">
-        <v>16.6666666666667</v>
+        <v>9.565217391304373</v>
       </c>
       <c r="L85" t="n">
         <v>8.018000000000002</v>
@@ -4778,7 +4800,7 @@
         <v>6.850000000000009</v>
       </c>
       <c r="K86" t="n">
-        <v>11.83673469387751</v>
+        <v>12.49999999999996</v>
       </c>
       <c r="L86" t="n">
         <v>8.037000000000003</v>
@@ -4829,7 +4851,7 @@
         <v>7.390000000000008</v>
       </c>
       <c r="K87" t="n">
-        <v>-8.724832214765092</v>
+        <v>-13.01115241635686</v>
       </c>
       <c r="L87" t="n">
         <v>8.011000000000003</v>
@@ -4880,7 +4902,7 @@
         <v>7.440000000000007</v>
       </c>
       <c r="K88" t="n">
-        <v>-6.622516556291395</v>
+        <v>-11.35531135531134</v>
       </c>
       <c r="L88" t="n">
         <v>7.981000000000003</v>
@@ -4931,7 +4953,7 @@
         <v>7.920000000000007</v>
       </c>
       <c r="K89" t="n">
-        <v>7.999999999999982</v>
+        <v>5.295950155763236</v>
       </c>
       <c r="L89" t="n">
         <v>7.998000000000003</v>
@@ -4982,7 +5004,7 @@
         <v>8.430000000000007</v>
       </c>
       <c r="K90" t="n">
-        <v>-6.000000000000005</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L90" t="n">
         <v>7.964000000000003</v>
@@ -5033,7 +5055,7 @@
         <v>8.940000000000007</v>
       </c>
       <c r="K91" t="n">
-        <v>5.98669623059866</v>
+        <v>4.812834224598923</v>
       </c>
       <c r="L91" t="n">
         <v>7.957000000000003</v>
@@ -5084,7 +5106,7 @@
         <v>8.990000000000007</v>
       </c>
       <c r="K92" t="n">
-        <v>7.017543859649128</v>
+        <v>-0.2816901408450644</v>
       </c>
       <c r="L92" t="n">
         <v>7.980000000000002</v>
@@ -5135,7 +5157,7 @@
         <v>9.330000000000009</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.6134969325153422</v>
+        <v>10.97178683385578</v>
       </c>
       <c r="L93" t="n">
         <v>7.945000000000003</v>
@@ -5186,7 +5208,7 @@
         <v>9.640000000000008</v>
       </c>
       <c r="K94" t="n">
-        <v>5.384615384615371</v>
+        <v>-0.7092198581560761</v>
       </c>
       <c r="L94" t="n">
         <v>8.011000000000003</v>
@@ -5237,7 +5259,7 @@
         <v>9.960000000000008</v>
       </c>
       <c r="K95" t="n">
-        <v>-2.205882352941178</v>
+        <v>-9.967845659163977</v>
       </c>
       <c r="L95" t="n">
         <v>7.977000000000002</v>
@@ -5288,7 +5310,7 @@
         <v>10.27000000000001</v>
       </c>
       <c r="K96" t="n">
-        <v>3.304347826086948</v>
+        <v>18.74999999999998</v>
       </c>
       <c r="L96" t="n">
         <v>7.977000000000002</v>
@@ -5339,7 +5361,7 @@
         <v>10.51000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>0.677966101694916</v>
+        <v>8.14332247557004</v>
       </c>
       <c r="L97" t="n">
         <v>8.007000000000001</v>
@@ -5390,7 +5412,7 @@
         <v>10.52</v>
       </c>
       <c r="K98" t="n">
-        <v>-1.03092783505154</v>
+        <v>-9.230769230769212</v>
       </c>
       <c r="L98" t="n">
         <v>8.031000000000002</v>
@@ -5441,7 +5463,7 @@
         <v>10.52</v>
       </c>
       <c r="K99" t="n">
-        <v>-1.204819277108424</v>
+        <v>12.91866028708137</v>
       </c>
       <c r="L99" t="n">
         <v>8.007000000000001</v>
@@ -5492,7 +5514,7 @@
         <v>10.73</v>
       </c>
       <c r="K100" t="n">
-        <v>2.325581395348848</v>
+        <v>-1.675977653631252</v>
       </c>
       <c r="L100" t="n">
         <v>8.055000000000003</v>
@@ -5543,7 +5565,7 @@
         <v>10.73</v>
       </c>
       <c r="K101" t="n">
-        <v>-1.730103806228368</v>
+        <v>-4.5977011494253</v>
       </c>
       <c r="L101" t="n">
         <v>8.052000000000003</v>
@@ -5594,7 +5616,7 @@
         <v>10.74</v>
       </c>
       <c r="K102" t="n">
-        <v>2.52707581227438</v>
+        <v>17.73049645390084</v>
       </c>
       <c r="L102" t="n">
         <v>8.043000000000003</v>
@@ -5645,7 +5667,7 @@
         <v>11.2</v>
       </c>
       <c r="K103" t="n">
-        <v>-9.722222222222236</v>
+        <v>-33.33333333333337</v>
       </c>
       <c r="L103" t="n">
         <v>8.022000000000004</v>
@@ -5696,7 +5718,7 @@
         <v>11.22</v>
       </c>
       <c r="K104" t="n">
-        <v>2.362204724409452</v>
+        <v>-17.46031746031749</v>
       </c>
       <c r="L104" t="n">
         <v>7.968000000000004</v>

--- a/BackTest/2019-10-17 BackTest XVG.xlsx
+++ b/BackTest/2019-10-17 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -804,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -909,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -944,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -979,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1084,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1119,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1189,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2986,6 +3063,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3027,6 +3105,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3068,6 +3147,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3111,6 +3191,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3154,6 +3235,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3197,6 +3279,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3238,6 +3321,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3279,6 +3363,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3320,6 +3405,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3361,6 +3447,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3402,6 +3489,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3443,6 +3531,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3484,6 +3573,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3525,6 +3615,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3566,6 +3657,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3607,6 +3699,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3648,6 +3741,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3689,6 +3783,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3730,6 +3825,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3771,6 +3867,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3812,6 +3909,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3853,6 +3951,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3894,6 +3993,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3935,6 +4035,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3976,6 +4077,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4017,6 +4119,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4058,6 +4161,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4099,6 +4203,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4140,6 +4245,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4181,6 +4287,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4222,6 +4329,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4263,6 +4371,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4304,6 +4413,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4345,6 +4455,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4386,6 +4497,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4427,6 +4539,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4468,6 +4581,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4509,6 +4623,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4550,6 +4665,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4591,6 +4707,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4632,6 +4749,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4673,6 +4791,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4714,6 +4833,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4755,6 +4875,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4796,6 +4917,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4837,6 +4959,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4878,6 +5001,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4919,6 +5043,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4960,6 +5085,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5001,6 +5127,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-17 BackTest XVG.xlsx
+++ b/BackTest/2019-10-17 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.369999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="C2" t="n">
-        <v>8.369999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="D2" t="n">
-        <v>8.369999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="E2" t="n">
-        <v>8.369999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>101107.0083</v>
       </c>
       <c r="G2" t="n">
-        <v>-707307.6635999997</v>
+        <v>-1272429.09294755</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.25</v>
+        <v>7.93</v>
       </c>
       <c r="C3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="D3" t="n">
-        <v>8.25</v>
+        <v>7.93</v>
       </c>
       <c r="E3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="F3" t="n">
-        <v>33585.0635</v>
+        <v>60000</v>
       </c>
       <c r="G3" t="n">
-        <v>-740892.7270999998</v>
+        <v>-1272429.09294755</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.369999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="C4" t="n">
-        <v>8.369999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="D4" t="n">
-        <v>8.369999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="E4" t="n">
-        <v>8.369999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="F4" t="n">
-        <v>37</v>
+        <v>6040</v>
       </c>
       <c r="G4" t="n">
-        <v>-740855.7270999998</v>
+        <v>-1266389.09294755</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.4</v>
+        <v>7.96</v>
       </c>
       <c r="C5" t="n">
-        <v>8.4</v>
+        <v>7.98</v>
       </c>
       <c r="D5" t="n">
-        <v>8.4</v>
+        <v>7.98</v>
       </c>
       <c r="E5" t="n">
-        <v>8.4</v>
+        <v>7.96</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>53989.74004755</v>
       </c>
       <c r="G5" t="n">
-        <v>-740845.7270999998</v>
+        <v>-1212399.3529</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.4</v>
+        <v>7.98</v>
       </c>
       <c r="C6" t="n">
-        <v>8.4</v>
+        <v>8.25</v>
       </c>
       <c r="D6" t="n">
-        <v>8.4</v>
+        <v>8.25</v>
       </c>
       <c r="E6" t="n">
-        <v>8.4</v>
+        <v>7.98</v>
       </c>
       <c r="F6" t="n">
-        <v>57978.2033</v>
+        <v>94644.4629</v>
       </c>
       <c r="G6" t="n">
-        <v>-740845.7270999998</v>
+        <v>-1117754.89</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.4</v>
+        <v>8.34</v>
       </c>
       <c r="C7" t="n">
         <v>8.4</v>
@@ -627,19 +627,19 @@
         <v>8.4</v>
       </c>
       <c r="E7" t="n">
-        <v>8.4</v>
+        <v>8.34</v>
       </c>
       <c r="F7" t="n">
-        <v>392087.5109</v>
+        <v>78731.6491</v>
       </c>
       <c r="G7" t="n">
-        <v>-740845.7270999998</v>
+        <v>-1039023.2409</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.42</v>
+        <v>8.41</v>
       </c>
       <c r="C8" t="n">
-        <v>8.42</v>
+        <v>8.41</v>
       </c>
       <c r="D8" t="n">
-        <v>8.42</v>
+        <v>8.43</v>
       </c>
       <c r="E8" t="n">
-        <v>8.42</v>
+        <v>8.41</v>
       </c>
       <c r="F8" t="n">
-        <v>510</v>
+        <v>410399.7673</v>
       </c>
       <c r="G8" t="n">
-        <v>-740335.7270999998</v>
+        <v>-628623.4735999997</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.35</v>
+        <v>8.42</v>
       </c>
       <c r="C9" t="n">
-        <v>8.35</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>8.35</v>
+        <v>8.42</v>
       </c>
       <c r="E9" t="n">
-        <v>8.35</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>2500</v>
+        <v>29296.2937</v>
       </c>
       <c r="G9" t="n">
-        <v>-742835.7270999998</v>
+        <v>-657919.7672999997</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.300000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="C10" t="n">
-        <v>8.300000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="D10" t="n">
-        <v>8.300000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="E10" t="n">
-        <v>8.300000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="F10" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G10" t="n">
-        <v>-743335.7270999998</v>
+        <v>-662919.7672999997</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -774,16 +774,16 @@
         <v>8.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1000</v>
+        <v>14964.1212</v>
       </c>
       <c r="G11" t="n">
-        <v>-744335.7270999998</v>
+        <v>-662919.7672999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8.210000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="C12" t="n">
-        <v>8.130000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="D12" t="n">
-        <v>8.210000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="E12" t="n">
-        <v>8.130000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="F12" t="n">
-        <v>24730</v>
+        <v>14964.1212</v>
       </c>
       <c r="G12" t="n">
-        <v>-769065.7270999998</v>
+        <v>-662919.7672999997</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8.119999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>8.119999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>8.119999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>8.119999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>10220</v>
+        <v>5000</v>
       </c>
       <c r="G13" t="n">
-        <v>-779285.7270999998</v>
+        <v>-667919.7672999997</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8.25</v>
+        <v>8.15</v>
       </c>
       <c r="C14" t="n">
-        <v>8.33</v>
+        <v>8.15</v>
       </c>
       <c r="D14" t="n">
-        <v>8.369999999999999</v>
+        <v>8.15</v>
       </c>
       <c r="E14" t="n">
-        <v>8.25</v>
+        <v>8.15</v>
       </c>
       <c r="F14" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G14" t="n">
-        <v>-777285.7270999998</v>
+        <v>-672919.7672999997</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8.31</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>8.300000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>8.31</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>8.289999999999999</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>20920</v>
+        <v>400</v>
       </c>
       <c r="G15" t="n">
-        <v>-798205.7270999998</v>
+        <v>-673319.7672999997</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>13030.2409</v>
+        <v>7730.0191</v>
       </c>
       <c r="G16" t="n">
-        <v>-798205.7270999998</v>
+        <v>-681049.7863999997</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>-798195.7270999998</v>
+        <v>-681037.7863999997</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.390000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>8.390000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>8.390000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>8.390000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n">
-        <v>-798205.7270999998</v>
+        <v>-681037.7863999997</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>478.3395</v>
       </c>
       <c r="G19" t="n">
-        <v>-798195.7270999998</v>
+        <v>-681037.7863999997</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8.109999999999999</v>
+        <v>8.01</v>
       </c>
       <c r="C20" t="n">
-        <v>8.06</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>8.109999999999999</v>
+        <v>8.01</v>
       </c>
       <c r="E20" t="n">
-        <v>8.06</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>3911.9804</v>
+        <v>45569.8137</v>
       </c>
       <c r="G20" t="n">
-        <v>-802107.7074999998</v>
+        <v>-726607.6000999997</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8.18</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>8.18</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>8.18</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>8.18</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>6975</v>
+        <v>469.4829</v>
       </c>
       <c r="G21" t="n">
-        <v>-795132.7074999998</v>
+        <v>-726607.6000999997</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8.390000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="C22" t="n">
-        <v>8.390000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="D22" t="n">
-        <v>8.390000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="E22" t="n">
-        <v>8.390000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>-795122.7074999998</v>
+        <v>-726596.6000999997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>8.130000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="C23" t="n">
-        <v>8.119999999999999</v>
+        <v>8.15</v>
       </c>
       <c r="D23" t="n">
-        <v>8.130000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="E23" t="n">
-        <v>8.119999999999999</v>
+        <v>8.15</v>
       </c>
       <c r="F23" t="n">
-        <v>7980</v>
+        <v>692.7063000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>-803102.7074999998</v>
+        <v>-726596.6000999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8.09</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>8.119999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>8.119999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>8.09</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>12968.523</v>
+        <v>277</v>
       </c>
       <c r="G24" t="n">
-        <v>-803102.7074999998</v>
+        <v>-726319.6000999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8.039999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>8.029999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>8.039999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>8.029999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>2367.317</v>
       </c>
       <c r="G25" t="n">
-        <v>-808102.7074999998</v>
+        <v>-726319.6000999997</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8.029999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>8.029999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="D26" t="n">
-        <v>8.029999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="E26" t="n">
-        <v>8.029999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>91</v>
+        <v>26491.9365</v>
       </c>
       <c r="G26" t="n">
-        <v>-808102.7074999998</v>
+        <v>-699827.6635999997</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8.039999999999999</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>8.02</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>8.039999999999999</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>8.02</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>187</v>
+        <v>5000</v>
       </c>
       <c r="G27" t="n">
-        <v>-808289.7074999998</v>
+        <v>-704827.6635999997</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>8.02</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>8.02</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>8.02</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>8.02</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>122</v>
+        <v>2500</v>
       </c>
       <c r="G28" t="n">
-        <v>-808289.7074999998</v>
+        <v>-704827.6635999997</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8.029999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>8.029999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>8.029999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>8.029999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="G29" t="n">
-        <v>-808279.7074999998</v>
+        <v>-707327.6635999997</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>8.039999999999999</v>
+        <v>8.35</v>
       </c>
       <c r="C30" t="n">
-        <v>8.039999999999999</v>
+        <v>8.35</v>
       </c>
       <c r="D30" t="n">
-        <v>8.039999999999999</v>
+        <v>8.35</v>
       </c>
       <c r="E30" t="n">
-        <v>8.039999999999999</v>
+        <v>8.35</v>
       </c>
       <c r="F30" t="n">
         <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>-808269.7074999998</v>
+        <v>-707317.6635999997</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8.039999999999999</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>8.039999999999999</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>8.039999999999999</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>8.039999999999999</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>17572.643</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>-808269.7074999998</v>
+        <v>-707307.6635999997</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>8.039999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="C32" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>8.300000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="E32" t="n">
-        <v>8.039999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>9605.144578310001</v>
+        <v>33585.0635</v>
       </c>
       <c r="G32" t="n">
-        <v>-798664.5629216898</v>
+        <v>-740892.7270999998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>8.039999999999999</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>8.039999999999999</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>8.039999999999999</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>8.039999999999999</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>37</v>
       </c>
       <c r="G33" t="n">
-        <v>-803664.5629216898</v>
+        <v>-740855.7270999998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8.06</v>
+        <v>8.4</v>
       </c>
       <c r="C34" t="n">
-        <v>8.06</v>
+        <v>8.4</v>
       </c>
       <c r="D34" t="n">
-        <v>8.06</v>
+        <v>8.4</v>
       </c>
       <c r="E34" t="n">
-        <v>8.06</v>
+        <v>8.4</v>
       </c>
       <c r="F34" t="n">
-        <v>9964.8555</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>-793699.7074216899</v>
+        <v>-740845.7270999998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>8.039999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="C35" t="n">
-        <v>8.039999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="D35" t="n">
-        <v>8.039999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="E35" t="n">
-        <v>8.039999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="F35" t="n">
-        <v>162578.4489</v>
+        <v>57978.2033</v>
       </c>
       <c r="G35" t="n">
-        <v>-956278.1563216898</v>
+        <v>-740845.7270999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>8.039999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="C36" t="n">
-        <v>8.039999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="D36" t="n">
-        <v>8.039999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="E36" t="n">
-        <v>8.039999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="F36" t="n">
-        <v>26451.898</v>
+        <v>392087.5109</v>
       </c>
       <c r="G36" t="n">
-        <v>-956278.1563216898</v>
+        <v>-740845.7270999998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8.039999999999999</v>
+        <v>8.42</v>
       </c>
       <c r="C37" t="n">
-        <v>7.96</v>
+        <v>8.42</v>
       </c>
       <c r="D37" t="n">
-        <v>8.039999999999999</v>
+        <v>8.42</v>
       </c>
       <c r="E37" t="n">
-        <v>7.96</v>
+        <v>8.42</v>
       </c>
       <c r="F37" t="n">
-        <v>127484.4672</v>
+        <v>510</v>
       </c>
       <c r="G37" t="n">
-        <v>-1083762.62352169</v>
+        <v>-740335.7270999998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.97</v>
+        <v>8.35</v>
       </c>
       <c r="C38" t="n">
-        <v>8.07</v>
+        <v>8.35</v>
       </c>
       <c r="D38" t="n">
-        <v>8.07</v>
+        <v>8.35</v>
       </c>
       <c r="E38" t="n">
-        <v>7.97</v>
+        <v>8.35</v>
       </c>
       <c r="F38" t="n">
-        <v>30698.5154</v>
+        <v>2500</v>
       </c>
       <c r="G38" t="n">
-        <v>-1053064.10812169</v>
+        <v>-742835.7270999998</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.95</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>7.95</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>7.95</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>7.95</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>92068.47470000001</v>
+        <v>500</v>
       </c>
       <c r="G39" t="n">
-        <v>-1145132.58282169</v>
+        <v>-743335.7270999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.95</v>
+        <v>8.25</v>
       </c>
       <c r="C40" t="n">
-        <v>7.94</v>
+        <v>8.25</v>
       </c>
       <c r="D40" t="n">
-        <v>7.95</v>
+        <v>8.25</v>
       </c>
       <c r="E40" t="n">
-        <v>7.94</v>
+        <v>8.25</v>
       </c>
       <c r="F40" t="n">
-        <v>14519.6385</v>
+        <v>1000</v>
       </c>
       <c r="G40" t="n">
-        <v>-1159652.22132169</v>
+        <v>-744335.7270999998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.93</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>7.8</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>7.93</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>7.8</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>1098.132</v>
+        <v>24730</v>
       </c>
       <c r="G41" t="n">
-        <v>-1160750.35332169</v>
+        <v>-769065.7270999998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.8</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>7.8</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>7.8</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>7.8</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>77347.3419</v>
+        <v>10220</v>
       </c>
       <c r="G42" t="n">
-        <v>-1160750.35332169</v>
+        <v>-779285.7270999998</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.77</v>
+        <v>8.25</v>
       </c>
       <c r="C43" t="n">
-        <v>7.77</v>
+        <v>8.33</v>
       </c>
       <c r="D43" t="n">
-        <v>7.77</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>7.77</v>
+        <v>8.25</v>
       </c>
       <c r="F43" t="n">
-        <v>3217.5032</v>
+        <v>2000</v>
       </c>
       <c r="G43" t="n">
-        <v>-1163967.85652169</v>
+        <v>-777285.7270999998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.9</v>
+        <v>8.31</v>
       </c>
       <c r="C44" t="n">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>7.9</v>
+        <v>8.31</v>
       </c>
       <c r="E44" t="n">
-        <v>7.9</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>58753.6708</v>
+        <v>20920</v>
       </c>
       <c r="G44" t="n">
-        <v>-1105214.18572169</v>
+        <v>-798205.7270999998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,28 +1986,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.76</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>7.91</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>7.91</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>7.76</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>620.1713999999999</v>
+        <v>13030.2409</v>
       </c>
       <c r="G45" t="n">
-        <v>-1104594.014321689</v>
+        <v>-798205.7270999998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,28 +2022,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.91</v>
+        <v>8.4</v>
       </c>
       <c r="C46" t="n">
-        <v>7.91</v>
+        <v>8.4</v>
       </c>
       <c r="D46" t="n">
-        <v>7.91</v>
+        <v>8.4</v>
       </c>
       <c r="E46" t="n">
-        <v>7.91</v>
+        <v>8.4</v>
       </c>
       <c r="F46" t="n">
-        <v>36980.506</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>-1104594.014321689</v>
+        <v>-798195.7270999998</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.92</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>7.92</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>7.92</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>7.92</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>41392.4782</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>-1063201.536121689</v>
+        <v>-798205.7270999998</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.93</v>
+        <v>8.4</v>
       </c>
       <c r="C48" t="n">
-        <v>7.91</v>
+        <v>8.4</v>
       </c>
       <c r="D48" t="n">
-        <v>7.93</v>
+        <v>8.4</v>
       </c>
       <c r="E48" t="n">
-        <v>7.91</v>
+        <v>8.4</v>
       </c>
       <c r="F48" t="n">
-        <v>344225</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>-1407426.536121689</v>
+        <v>-798195.7270999998</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.91</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>7.91</v>
+        <v>8.06</v>
       </c>
       <c r="D49" t="n">
-        <v>7.91</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>7.91</v>
+        <v>8.06</v>
       </c>
       <c r="F49" t="n">
-        <v>20877.5617</v>
+        <v>3911.9804</v>
       </c>
       <c r="G49" t="n">
-        <v>-1407426.536121689</v>
+        <v>-802107.7074999998</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>8.09</v>
+        <v>8.18</v>
       </c>
       <c r="C50" t="n">
-        <v>8.09</v>
+        <v>8.18</v>
       </c>
       <c r="D50" t="n">
-        <v>8.09</v>
+        <v>8.18</v>
       </c>
       <c r="E50" t="n">
-        <v>8.09</v>
+        <v>8.18</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>6975</v>
       </c>
       <c r="G50" t="n">
-        <v>-1407416.536121689</v>
+        <v>-795132.7074999998</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>8.09</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>8.09</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>8.09</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>8.09</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>5307.7057</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>-1407416.536121689</v>
+        <v>-795122.7074999998</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>8.1</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>8.33</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>8.33</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>8.1</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>204523.0125</v>
+        <v>7980</v>
       </c>
       <c r="G52" t="n">
-        <v>-1202893.52362169</v>
+        <v>-803102.7074999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>8.33</v>
+        <v>8.09</v>
       </c>
       <c r="C53" t="n">
-        <v>8.33</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>8.33</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>8.33</v>
+        <v>8.09</v>
       </c>
       <c r="F53" t="n">
-        <v>280327.3367</v>
+        <v>12968.523</v>
       </c>
       <c r="G53" t="n">
-        <v>-1202893.52362169</v>
+        <v>-803102.7074999998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>8.15</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>8.09</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>8.15</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>8.09</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>108567.7555</v>
+        <v>5000</v>
       </c>
       <c r="G54" t="n">
-        <v>-1311461.279121689</v>
+        <v>-808102.7074999998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>8.33</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>8.33</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>8.33</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>8.33</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="G55" t="n">
-        <v>-1311451.279121689</v>
+        <v>-808102.7074999998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>8.33</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>8.33</v>
+        <v>8.02</v>
       </c>
       <c r="D56" t="n">
-        <v>8.33</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>8.33</v>
+        <v>8.02</v>
       </c>
       <c r="F56" t="n">
-        <v>6002.4009</v>
+        <v>187</v>
       </c>
       <c r="G56" t="n">
-        <v>-1311451.279121689</v>
+        <v>-808289.7074999998</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>8.109999999999999</v>
+        <v>8.02</v>
       </c>
       <c r="C57" t="n">
-        <v>8.09</v>
+        <v>8.02</v>
       </c>
       <c r="D57" t="n">
-        <v>8.109999999999999</v>
+        <v>8.02</v>
       </c>
       <c r="E57" t="n">
-        <v>8.09</v>
+        <v>8.02</v>
       </c>
       <c r="F57" t="n">
-        <v>111060.4573</v>
+        <v>122</v>
       </c>
       <c r="G57" t="n">
-        <v>-1422511.736421689</v>
+        <v>-808289.7074999998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>7.92</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>7.92</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>321173.12</v>
+        <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>-1743684.85642169</v>
+        <v>-808279.7074999998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.77</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>7.77</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>7.77</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>7.77</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>3655.3252</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>-1747340.18162169</v>
+        <v>-808269.7074999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7.87</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>7.87</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>7.87</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>7.87</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>5555</v>
+        <v>17572.643</v>
       </c>
       <c r="G60" t="n">
-        <v>-1741785.18162169</v>
+        <v>-808269.7074999998</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7.87</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>7.87</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>7.87</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>7.87</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>22573.653</v>
+        <v>9605.144578310001</v>
       </c>
       <c r="G61" t="n">
-        <v>-1741785.18162169</v>
+        <v>-798664.5629216898</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>7.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>7.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>7.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>16.2404</v>
+        <v>5000</v>
       </c>
       <c r="G62" t="n">
-        <v>-1741801.42202169</v>
+        <v>-803664.5629216898</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.8</v>
+        <v>8.06</v>
       </c>
       <c r="C63" t="n">
-        <v>7.79</v>
+        <v>8.06</v>
       </c>
       <c r="D63" t="n">
-        <v>7.8</v>
+        <v>8.06</v>
       </c>
       <c r="E63" t="n">
-        <v>7.79</v>
+        <v>8.06</v>
       </c>
       <c r="F63" t="n">
-        <v>25515</v>
+        <v>9964.8555</v>
       </c>
       <c r="G63" t="n">
-        <v>-1767316.42202169</v>
+        <v>-793699.7074216899</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.79</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>7.79</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>7.79</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>7.79</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>2328</v>
+        <v>162578.4489</v>
       </c>
       <c r="G64" t="n">
-        <v>-1767316.42202169</v>
+        <v>-956278.1563216898</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.77</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>7.77</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>7.77</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>7.77</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>25500</v>
+        <v>26451.898</v>
       </c>
       <c r="G65" t="n">
-        <v>-1792816.42202169</v>
+        <v>-956278.1563216898</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>7.8</v>
+        <v>7.96</v>
       </c>
       <c r="D66" t="n">
-        <v>7.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>7.8</v>
+        <v>7.96</v>
       </c>
       <c r="F66" t="n">
-        <v>154647</v>
+        <v>127484.4672</v>
       </c>
       <c r="G66" t="n">
-        <v>-1638169.42202169</v>
+        <v>-1083762.62352169</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.8</v>
+        <v>7.97</v>
       </c>
       <c r="C67" t="n">
-        <v>7.8</v>
+        <v>8.07</v>
       </c>
       <c r="D67" t="n">
-        <v>7.8</v>
+        <v>8.07</v>
       </c>
       <c r="E67" t="n">
-        <v>7.8</v>
+        <v>7.97</v>
       </c>
       <c r="F67" t="n">
-        <v>127751.2599</v>
+        <v>30698.5154</v>
       </c>
       <c r="G67" t="n">
-        <v>-1638169.42202169</v>
+        <v>-1053064.10812169</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.8</v>
+        <v>7.95</v>
       </c>
       <c r="C68" t="n">
-        <v>7.8</v>
+        <v>7.95</v>
       </c>
       <c r="D68" t="n">
-        <v>7.8</v>
+        <v>7.95</v>
       </c>
       <c r="E68" t="n">
-        <v>7.8</v>
+        <v>7.95</v>
       </c>
       <c r="F68" t="n">
-        <v>4258.3753</v>
+        <v>92068.47470000001</v>
       </c>
       <c r="G68" t="n">
-        <v>-1638169.42202169</v>
+        <v>-1145132.58282169</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.8</v>
+        <v>7.95</v>
       </c>
       <c r="C69" t="n">
-        <v>7.8</v>
+        <v>7.94</v>
       </c>
       <c r="D69" t="n">
-        <v>7.8</v>
+        <v>7.95</v>
       </c>
       <c r="E69" t="n">
-        <v>7.8</v>
+        <v>7.94</v>
       </c>
       <c r="F69" t="n">
-        <v>29715.589</v>
+        <v>14519.6385</v>
       </c>
       <c r="G69" t="n">
-        <v>-1638169.42202169</v>
+        <v>-1159652.22132169</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7.77</v>
+        <v>7.93</v>
       </c>
       <c r="C70" t="n">
-        <v>7.77</v>
+        <v>7.8</v>
       </c>
       <c r="D70" t="n">
-        <v>7.77</v>
+        <v>7.93</v>
       </c>
       <c r="E70" t="n">
-        <v>7.77</v>
+        <v>7.8</v>
       </c>
       <c r="F70" t="n">
-        <v>42849.4385</v>
+        <v>1098.132</v>
       </c>
       <c r="G70" t="n">
-        <v>-1681018.86052169</v>
+        <v>-1160750.35332169</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2934,10 +2934,10 @@
         <v>7.8</v>
       </c>
       <c r="F71" t="n">
-        <v>2000</v>
+        <v>77347.3419</v>
       </c>
       <c r="G71" t="n">
-        <v>-1679018.86052169</v>
+        <v>-1160750.35332169</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2961,19 +2961,19 @@
         <v>7.77</v>
       </c>
       <c r="C72" t="n">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="D72" t="n">
         <v>7.77</v>
       </c>
       <c r="E72" t="n">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="F72" t="n">
-        <v>81144.0756</v>
+        <v>3217.5032</v>
       </c>
       <c r="G72" t="n">
-        <v>-1760162.93612169</v>
+        <v>-1163967.85652169</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.76</v>
+        <v>7.9</v>
       </c>
       <c r="C73" t="n">
-        <v>7.76</v>
+        <v>7.9</v>
       </c>
       <c r="D73" t="n">
-        <v>7.76</v>
+        <v>7.9</v>
       </c>
       <c r="E73" t="n">
-        <v>7.76</v>
+        <v>7.9</v>
       </c>
       <c r="F73" t="n">
-        <v>500</v>
+        <v>58753.6708</v>
       </c>
       <c r="G73" t="n">
-        <v>-1760162.93612169</v>
+        <v>-1105214.18572169</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3033,32 +3033,28 @@
         <v>7.76</v>
       </c>
       <c r="C74" t="n">
-        <v>7.76</v>
+        <v>7.91</v>
       </c>
       <c r="D74" t="n">
-        <v>7.76</v>
+        <v>7.91</v>
       </c>
       <c r="E74" t="n">
         <v>7.76</v>
       </c>
       <c r="F74" t="n">
-        <v>7024.9913</v>
+        <v>620.1713999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>-1760162.93612169</v>
+        <v>-1104594.014321689</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K74" t="n">
-        <v>7.76</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
@@ -3070,2064 +3066,3018 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D75" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E75" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F75" t="n">
+        <v>36980.506</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-1104594.014321689</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="C76" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="D76" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="E76" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F76" t="n">
+        <v>41392.4782</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-1063201.536121689</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="C77" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D77" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="E77" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F77" t="n">
+        <v>344225</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-1407426.536121689</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E78" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F78" t="n">
+        <v>20877.5617</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1407426.536121689</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="D79" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="E79" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-1407416.536121689</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="D80" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="F80" t="n">
+        <v>5307.7057</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-1407416.536121689</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="D81" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="E81" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>204523.0125</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-1202893.52362169</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="C82" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="D82" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="E82" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F82" t="n">
+        <v>280327.3367</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-1202893.52362169</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="C83" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="D83" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="E83" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="F83" t="n">
+        <v>108567.7555</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-1311461.279121689</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="C84" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="D84" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="E84" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F84" t="n">
+        <v>10</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-1311451.279121689</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="C85" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="D85" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="E85" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F85" t="n">
+        <v>6002.4009</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-1311451.279121689</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="C86" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="D86" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="F86" t="n">
+        <v>111060.4573</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1422511.736421689</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>8</v>
+      </c>
+      <c r="C87" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="D87" t="n">
+        <v>8</v>
+      </c>
+      <c r="E87" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F87" t="n">
+        <v>321173.12</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-1743684.85642169</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C88" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="D88" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E88" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3655.3252</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-1747340.18162169</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="E89" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5555</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1741785.18162169</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="C90" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="D90" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="E90" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="F90" t="n">
+        <v>22573.653</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-1741785.18162169</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C91" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D91" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F91" t="n">
+        <v>16.2404</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-1741801.42202169</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C92" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D92" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F92" t="n">
+        <v>25515</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1767316.42202169</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C93" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D93" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2328</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1767316.42202169</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C94" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E94" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F94" t="n">
+        <v>25500</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1792816.42202169</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C95" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D95" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F95" t="n">
+        <v>154647</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1638169.42202169</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E96" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F96" t="n">
+        <v>127751.2599</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1638169.42202169</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C97" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D97" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4258.3753</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1638169.42202169</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C98" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E98" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>29715.589</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-1638169.42202169</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C99" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="D99" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E99" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F99" t="n">
+        <v>42849.4385</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1681018.86052169</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C100" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D100" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E100" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-1679018.86052169</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C101" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="D101" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E101" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="F101" t="n">
+        <v>81144.0756</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-1760162.93612169</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="C102" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="E102" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="F102" t="n">
+        <v>500</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1760162.93612169</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="C103" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="E103" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="F103" t="n">
+        <v>7024.9913</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-1760162.93612169</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
         <v>7.65</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C104" t="n">
         <v>7.64</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D104" t="n">
         <v>7.65</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E104" t="n">
         <v>7.64</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F104" t="n">
         <v>135148.6094</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G104" t="n">
         <v>-1895311.54552169</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C105" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="E105" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F105" t="n">
+        <v>152158.1099</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1743153.43562169</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="C106" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="E106" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F106" t="n">
+        <v>34710.7294</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-1777864.16502169</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="E107" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F107" t="n">
+        <v>145.0484</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1777864.16502169</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C108" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E108" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1777854.16502169</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C109" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E109" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3706.9743</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1777854.16502169</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="C110" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="D110" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="E110" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="F110" t="n">
+        <v>197366.5604</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-1975220.72542169</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="C111" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D111" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="E111" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F111" t="n">
+        <v>177438.3429</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2152659.068321689</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="C112" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="E112" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F112" t="n">
+        <v>19928.2176</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2172587.28592169</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C113" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E113" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F113" t="n">
+        <v>10</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2172577.28592169</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="C114" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D114" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="E114" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F114" t="n">
+        <v>25518.7272</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2198096.01312169</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C115" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F115" t="n">
+        <v>200</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2198296.01312169</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C116" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D116" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E116" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F116" t="n">
+        <v>494.671</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-2198296.01312169</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="C117" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="E117" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4168.1728</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-2202464.185921689</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="C118" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="D118" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1642.5827</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2204106.76862169</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="C119" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="D119" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="E119" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="F119" t="n">
+        <v>267086.1945</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1937020.57412169</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="K119" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="C120" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="D120" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="E120" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="F120" t="n">
+        <v>145985.7009</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1937020.57412169</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K120" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="E121" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8721.1512</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1945741.72532169</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K121" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E122" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1945731.72532169</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="K122" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E123" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3756.628</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1949488.35332169</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="K123" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C124" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F124" t="n">
+        <v>133.372</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1949354.98132169</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1651.0263</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1947703.95502169</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K125" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="C76" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="D76" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="E76" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F76" t="n">
-        <v>152158.1099</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-1743153.43562169</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C126" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E126" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F126" t="n">
+        <v>15530.2616</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1932173.69342169</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="K126" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="C77" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="D77" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="E77" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="F77" t="n">
-        <v>34710.7294</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-1777864.16502169</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="K77" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C127" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4360</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1936533.69342169</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="C78" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="D78" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="E78" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="F78" t="n">
-        <v>145.0484</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-1777864.16502169</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="K78" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C128" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E128" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4360</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1936533.69342169</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="C79" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="D79" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E79" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="F79" t="n">
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C129" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D129" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E129" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F129" t="n">
         <v>10</v>
       </c>
-      <c r="G79" t="n">
-        <v>-1777854.16502169</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="K79" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="G129" t="n">
+        <v>-1936523.69342169</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="C80" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="D80" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E80" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="F80" t="n">
-        <v>3706.9743</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-1777854.16502169</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D130" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E130" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1936523.69342169</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="C81" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="D81" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="E81" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="F81" t="n">
-        <v>197366.5604</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-1975220.72542169</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C131" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E131" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1775.706</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-1936523.69342169</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="C82" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="D82" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="E82" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="F82" t="n">
-        <v>177438.3429</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-2152659.068321689</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="C132" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="D132" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="E132" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F132" t="n">
+        <v>8200</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1928323.69342169</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="C83" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="D83" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="E83" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="F83" t="n">
-        <v>19928.2176</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-2172587.28592169</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="C133" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="D133" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="E133" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F133" t="n">
+        <v>15418.8131</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1928323.69342169</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="C84" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="D84" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E84" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="F84" t="n">
-        <v>10</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-2172577.28592169</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="C134" t="n">
+        <v>8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F134" t="n">
+        <v>124618.44727512</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1803705.246146569</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="C85" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="D85" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="E85" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="F85" t="n">
-        <v>25518.7272</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-2198096.01312169</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>51363.625</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1803705.246146569</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="C86" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="D86" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E86" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F86" t="n">
-        <v>200</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-2198296.01312169</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C136" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D136" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E136" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F136" t="n">
+        <v>48224.294</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1851929.540146569</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="C87" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="D87" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E87" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F87" t="n">
-        <v>494.671</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-2198296.01312169</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C137" t="n">
+        <v>8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>294291.56280875</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1557637.97733782</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="C88" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="D88" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="E88" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="F88" t="n">
-        <v>4168.1728</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-2202464.185921689</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="D138" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="E138" t="n">
+        <v>8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>27619.53501613</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1530018.44232169</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="C89" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="D89" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="E89" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1642.5827</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-2204106.76862169</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C139" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="D139" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="E139" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="F139" t="n">
+        <v>11635.7369</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1530018.44232169</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="C90" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="D90" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="E90" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="F90" t="n">
-        <v>267086.1945</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-1937020.57412169</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="C140" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D140" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="E140" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="F140" t="n">
+        <v>10</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1530008.44232169</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="C91" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="D91" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="E91" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="F91" t="n">
-        <v>145985.7009</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-1937020.57412169</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C141" t="n">
+        <v>8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="E141" t="n">
+        <v>8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>135063.8735</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1665072.31582169</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="C142" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="D142" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="E142" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1665062.31582169</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
         <v>7.53</v>
       </c>
-      <c r="C92" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="D92" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="E92" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="F92" t="n">
-        <v>8721.1512</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-1945741.72532169</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="C93" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="D93" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E93" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="F93" t="n">
-        <v>10</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-1945731.72532169</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="C143" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="D143" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="E143" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5200</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1670262.31582169</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="C94" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="D94" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="E94" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="F94" t="n">
-        <v>3756.628</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-1949488.35332169</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="C144" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="D144" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1670252.31582169</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="C95" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D95" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E95" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="F95" t="n">
-        <v>133.372</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-1949354.98132169</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="C145" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="D145" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E145" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F145" t="n">
+        <v>11</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1670263.31582169</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="C96" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D96" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E96" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1651.0263</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-1947703.95502169</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="C146" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="D146" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E146" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="F146" t="n">
+        <v>200</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1670463.31582169</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C97" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="D97" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E97" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F97" t="n">
-        <v>15530.2616</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-1932173.69342169</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="C147" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="E147" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>29260.6074</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1641202.708421689</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C98" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D98" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E98" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F98" t="n">
-        <v>4360</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-1936533.69342169</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="C148" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="D148" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="E148" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F148" t="n">
+        <v>10</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1641192.708421689</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C99" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D99" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E99" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F99" t="n">
-        <v>4360</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-1936533.69342169</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="C149" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D149" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="E149" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="F149" t="n">
+        <v>20</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1641212.708421689</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="C100" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="D100" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E100" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="F100" t="n">
-        <v>10</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-1936523.69342169</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="C150" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="D150" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="E150" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F150" t="n">
+        <v>76.28360000000001</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1641136.424821689</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="C101" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="D101" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E101" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="F101" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-1936523.69342169</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="C151" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="D151" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="E151" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F151" t="n">
+        <v>162957.70846403</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1478178.71635766</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="C102" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="D102" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E102" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1775.706</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-1936523.69342169</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="C152" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="D152" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="E152" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3747.2365</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-1481925.95285766</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="C103" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="D103" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="E103" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F103" t="n">
-        <v>8200</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-1928323.69342169</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="C104" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="D104" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="E104" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F104" t="n">
-        <v>15418.8131</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-1928323.69342169</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="C105" t="n">
-        <v>8</v>
-      </c>
-      <c r="D105" t="n">
-        <v>8</v>
-      </c>
-      <c r="E105" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F105" t="n">
-        <v>124618.44727512</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-1803705.246146569</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>8</v>
-      </c>
-      <c r="C106" t="n">
-        <v>8</v>
-      </c>
-      <c r="D106" t="n">
-        <v>8</v>
-      </c>
-      <c r="E106" t="n">
-        <v>8</v>
-      </c>
-      <c r="F106" t="n">
-        <v>51363.625</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-1803705.246146569</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="C107" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="D107" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E107" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="F107" t="n">
-        <v>48224.294</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-1851929.540146569</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C108" t="n">
-        <v>8</v>
-      </c>
-      <c r="D108" t="n">
-        <v>8</v>
-      </c>
-      <c r="E108" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F108" t="n">
-        <v>294291.56280875</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-1557637.97733782</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>8</v>
-      </c>
-      <c r="C109" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D109" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E109" t="n">
-        <v>8</v>
-      </c>
-      <c r="F109" t="n">
-        <v>27619.53501613</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-1530018.44232169</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C110" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D110" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E110" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F110" t="n">
-        <v>11635.7369</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-1530018.44232169</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="C111" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="D111" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="E111" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="F111" t="n">
-        <v>10</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-1530008.44232169</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C112" t="n">
-        <v>8</v>
-      </c>
-      <c r="D112" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E112" t="n">
-        <v>8</v>
-      </c>
-      <c r="F112" t="n">
-        <v>135063.8735</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-1665072.31582169</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="C113" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="D113" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="E113" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="F113" t="n">
-        <v>10</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-1665062.31582169</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="C114" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="D114" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="E114" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="F114" t="n">
-        <v>5200</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-1670262.31582169</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="C115" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="D115" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="E115" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="F115" t="n">
-        <v>10</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-1670252.31582169</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="C116" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="D116" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="E116" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="F116" t="n">
-        <v>11</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-1670263.31582169</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="C117" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="D117" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="E117" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="F117" t="n">
-        <v>200</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-1670463.31582169</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="C118" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="D118" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="E118" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F118" t="n">
-        <v>29260.6074</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-1641202.708421689</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="C119" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="D119" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="E119" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="F119" t="n">
-        <v>10</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-1641192.708421689</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="C120" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="D120" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="E120" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="F120" t="n">
-        <v>20</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-1641212.708421689</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="C121" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="D121" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="E121" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="F121" t="n">
-        <v>76.28360000000001</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-1641136.424821689</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="C122" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="D122" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="E122" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="F122" t="n">
-        <v>162957.70846403</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-1478178.71635766</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="C123" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="D123" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="E123" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="F123" t="n">
-        <v>3747.2365</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-1481925.95285766</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-17 BackTest XVG.xlsx
+++ b/BackTest/2019-10-17 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-657919.7672999997</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-662919.7672999997</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-662919.7672999997</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-707327.6635999997</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-707317.6635999997</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-707307.6635999997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-740845.7270999998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-798195.7270999998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,22 +4312,19 @@
         <v>-1937020.57412169</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="J119" t="n">
         <v>7.55</v>
       </c>
-      <c r="K119" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4708,26 +4349,23 @@
         <v>-1937020.57412169</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>7.63</v>
       </c>
       <c r="J120" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="K120" t="n">
         <v>7.55</v>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4752,26 +4390,23 @@
         <v>-1945741.72532169</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>7.63</v>
       </c>
       <c r="J121" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="K121" t="n">
         <v>7.55</v>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4796,22 +4431,15 @@
         <v>-1945731.72532169</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="K122" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4836,1250 +4464,1020 @@
         <v>-1949488.35332169</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="K123" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L123" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C124" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F124" t="n">
+        <v>133.372</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1949354.98132169</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1651.0263</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1947703.95502169</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C126" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E126" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F126" t="n">
+        <v>15530.2616</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1932173.69342169</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C127" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4360</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1936533.69342169</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="J127" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C128" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E128" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4360</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1936533.69342169</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J128" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="C124" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D124" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E124" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="F124" t="n">
-        <v>133.372</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-1949354.98132169</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C129" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D129" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E129" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1936523.69342169</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="C125" t="n">
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D130" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E130" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1936523.69342169</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C131" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E131" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1775.706</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-1936523.69342169</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="C132" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="D132" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="E132" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F132" t="n">
+        <v>8200</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1928323.69342169</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="C133" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="D133" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="E133" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F133" t="n">
+        <v>15418.8131</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1928323.69342169</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="C134" t="n">
+        <v>8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F134" t="n">
+        <v>124618.44727512</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1803705.246146569</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>51363.625</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1803705.246146569</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C136" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D136" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E136" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F136" t="n">
+        <v>48224.294</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1851929.540146569</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
         <v>7.9</v>
       </c>
-      <c r="D125" t="n">
+      <c r="C137" t="n">
+        <v>8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" t="n">
         <v>7.9</v>
       </c>
-      <c r="E125" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1651.0263</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-1947703.95502169</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K125" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="F137" t="n">
+        <v>294291.56280875</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1557637.97733782</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="D138" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="E138" t="n">
+        <v>8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>27619.53501613</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1530018.44232169</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C139" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="D139" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="E139" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="F139" t="n">
+        <v>11635.7369</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1530018.44232169</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="C140" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D140" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="E140" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="F140" t="n">
+        <v>10</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1530008.44232169</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C141" t="n">
+        <v>8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="E141" t="n">
+        <v>8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>135063.8735</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1665072.31582169</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="C142" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="D142" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="E142" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1665062.31582169</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="C143" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="D143" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="E143" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5200</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1670262.31582169</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="C144" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="D144" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1670252.31582169</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="C145" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="D145" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E145" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F145" t="n">
+        <v>11</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1670263.31582169</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="C146" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="D146" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E146" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="F146" t="n">
+        <v>200</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1670463.31582169</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="C147" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="E147" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>29260.6074</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1641202.708421689</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="C148" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="D148" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="E148" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F148" t="n">
+        <v>10</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1641192.708421689</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+      <c r="I148" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J148" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="C149" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D149" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="E149" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="F149" t="n">
+        <v>20</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1641212.708421689</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C126" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="D126" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E126" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F126" t="n">
-        <v>15530.2616</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-1932173.69342169</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="K126" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="C150" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="D150" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="E150" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F150" t="n">
+        <v>76.28360000000001</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1641136.424821689</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C127" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D127" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E127" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F127" t="n">
-        <v>4360</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-1936533.69342169</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="C151" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="D151" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="E151" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F151" t="n">
+        <v>162957.70846403</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1478178.71635766</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C128" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D128" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E128" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F128" t="n">
-        <v>4360</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-1936533.69342169</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="C152" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="D152" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="E152" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3747.2365</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-1481925.95285766</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="C129" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="D129" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E129" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="F129" t="n">
-        <v>10</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-1936523.69342169</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="C130" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="D130" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E130" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="F130" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-1936523.69342169</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="C131" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="D131" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E131" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1775.706</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-1936523.69342169</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="C132" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="D132" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="E132" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F132" t="n">
-        <v>8200</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-1928323.69342169</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="C133" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="D133" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="E133" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F133" t="n">
-        <v>15418.8131</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-1928323.69342169</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="C134" t="n">
-        <v>8</v>
-      </c>
-      <c r="D134" t="n">
-        <v>8</v>
-      </c>
-      <c r="E134" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F134" t="n">
-        <v>124618.44727512</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-1803705.246146569</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>8</v>
-      </c>
-      <c r="C135" t="n">
-        <v>8</v>
-      </c>
-      <c r="D135" t="n">
-        <v>8</v>
-      </c>
-      <c r="E135" t="n">
-        <v>8</v>
-      </c>
-      <c r="F135" t="n">
-        <v>51363.625</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-1803705.246146569</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="C136" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="D136" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E136" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="F136" t="n">
-        <v>48224.294</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-1851929.540146569</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C137" t="n">
-        <v>8</v>
-      </c>
-      <c r="D137" t="n">
-        <v>8</v>
-      </c>
-      <c r="E137" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F137" t="n">
-        <v>294291.56280875</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-1557637.97733782</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>8</v>
-      </c>
-      <c r="C138" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D138" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E138" t="n">
-        <v>8</v>
-      </c>
-      <c r="F138" t="n">
-        <v>27619.53501613</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-1530018.44232169</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C139" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D139" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E139" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F139" t="n">
-        <v>11635.7369</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-1530018.44232169</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="C140" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="D140" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="E140" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="F140" t="n">
-        <v>10</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-1530008.44232169</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C141" t="n">
-        <v>8</v>
-      </c>
-      <c r="D141" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E141" t="n">
-        <v>8</v>
-      </c>
-      <c r="F141" t="n">
-        <v>135063.8735</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-1665072.31582169</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="C142" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="D142" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="E142" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="F142" t="n">
-        <v>10</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-1665062.31582169</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="C143" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="D143" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="E143" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="F143" t="n">
-        <v>5200</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-1670262.31582169</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="C144" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="D144" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="E144" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="F144" t="n">
-        <v>10</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-1670252.31582169</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="C145" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="D145" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="E145" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="F145" t="n">
-        <v>11</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-1670263.31582169</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="C146" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="D146" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="E146" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="F146" t="n">
-        <v>200</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-1670463.31582169</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="C147" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="D147" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="E147" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F147" t="n">
-        <v>29260.6074</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-1641202.708421689</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="C148" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="D148" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="E148" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="F148" t="n">
-        <v>10</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-1641192.708421689</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="C149" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="D149" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="E149" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="F149" t="n">
-        <v>20</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-1641212.708421689</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="C150" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="D150" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="E150" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="F150" t="n">
-        <v>76.28360000000001</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-1641136.424821689</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="C151" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="D151" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="E151" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="F151" t="n">
-        <v>162957.70846403</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-1478178.71635766</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="C152" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="D152" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="E152" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="F152" t="n">
-        <v>3747.2365</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-1481925.95285766</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest XVG.xlsx
+++ b/BackTest/2019-10-17 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
         <v>-657919.7672999997</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-662919.7672999997</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-662919.7672999997</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-707327.6635999997</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-707317.6635999997</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-707307.6635999997</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-740845.7270999998</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-798195.7270999998</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-798195.7270999998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-802107.7074999998</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-795132.7074999998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-795122.7074999998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-803102.7074999998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-803102.7074999998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-808102.7074999998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-808102.7074999998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-808289.7074999998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-808289.7074999998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-808279.7074999998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-808269.7074999998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-808269.7074999998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-956278.1563216898</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-956278.1563216898</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1083762.62352169</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1159652.22132169</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1160750.35332169</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1160750.35332169</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1163967.85652169</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1105214.18572169</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1104594.014321689</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1104594.014321689</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -4279,10 +4279,14 @@
         <v>-2204106.76862169</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="J118" t="n">
+        <v>7.58</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
@@ -4312,15 +4316,19 @@
         <v>-1937020.57412169</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>7.55</v>
       </c>
       <c r="J119" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
+        <v>7.58</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,13 +4357,13 @@
         <v>-1937020.57412169</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>7.63</v>
       </c>
       <c r="J120" t="n">
-        <v>7.55</v>
+        <v>7.58</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4390,52 +4398,56 @@
         <v>-1945741.72532169</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>7.63</v>
       </c>
       <c r="J121" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="K121" t="inlineStr">
+        <v>7.63</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E122" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1945731.72532169</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="J122" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="C122" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="D122" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E122" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="F122" t="n">
-        <v>10</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-1945731.72532169</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4464,11 +4476,19 @@
         <v>-1949488.35332169</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="J123" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4497,11 +4517,19 @@
         <v>-1949354.98132169</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="J124" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4533,8 +4561,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4566,8 +4600,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4596,15 +4636,17 @@
         <v>-1936533.69342169</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+        <v>7.63</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4633,17 +4675,15 @@
         <v>-1936533.69342169</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>7.91</v>
+        <v>7.63</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -4678,11 +4718,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>7.91</v>
+        <v>7.63</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -4716,8 +4756,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4749,8 +4795,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4779,11 +4831,19 @@
         <v>-1928323.69342169</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="J132" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4812,11 +4872,19 @@
         <v>-1928323.69342169</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="J133" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4845,11 +4913,19 @@
         <v>-1803705.246146569</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="J134" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4881,8 +4957,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4911,11 +4993,19 @@
         <v>-1851929.540146569</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>8</v>
+      </c>
+      <c r="J136" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4944,11 +5034,19 @@
         <v>-1557637.97733782</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="J137" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4977,11 +5075,19 @@
         <v>-1530018.44232169</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>8</v>
+      </c>
+      <c r="J138" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5013,8 +5119,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5043,11 +5155,19 @@
         <v>-1530008.44232169</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="J140" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5076,11 +5196,19 @@
         <v>-1665072.31582169</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="J141" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5109,11 +5237,19 @@
         <v>-1665062.31582169</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>8</v>
+      </c>
+      <c r="J142" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5142,11 +5278,19 @@
         <v>-1670262.31582169</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="J143" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5175,11 +5319,19 @@
         <v>-1670252.31582169</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="J144" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5211,8 +5363,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5244,8 +5402,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5277,8 +5441,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5307,15 +5477,17 @@
         <v>-1641192.708421689</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>7.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
+        <v>7.63</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5348,11 +5520,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>7.7</v>
+        <v>7.63</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L149" t="n">
@@ -5387,7 +5559,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>7.7</v>
+        <v>7.63</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5426,7 +5598,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>7.7</v>
+        <v>7.63</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5465,7 +5637,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>7.7</v>
+        <v>7.63</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5478,6 +5650,6 @@
       <c r="M152" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest XVG.xlsx
+++ b/BackTest/2019-10-17 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>-628623.4735999997</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-662919.7672999997</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-662919.7672999997</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-681049.7863999997</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-681037.7863999997</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-681037.7863999997</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-726596.6000999997</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-740855.7270999998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-798195.7270999998</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-802107.7074999998</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-795132.7074999998</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-795122.7074999998</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-803102.7074999998</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-803102.7074999998</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-808102.7074999998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-808102.7074999998</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-808289.7074999998</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-808289.7074999998</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-808279.7074999998</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-808269.7074999998</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-808269.7074999998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-956278.1563216898</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-956278.1563216898</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1083762.62352169</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1159652.22132169</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1160750.35332169</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1160750.35332169</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1163967.85652169</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1105214.18572169</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1104594.014321689</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1104594.014321689</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3751,10 +3751,14 @@
         <v>-1760162.93612169</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="J102" t="n">
+        <v>7.76</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
@@ -3787,8 +3791,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3827,19 @@
         <v>-1895311.54552169</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="J104" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +3871,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +3910,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +3949,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +3985,19 @@
         <v>-1777854.16502169</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="J108" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4029,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4068,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4107,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4146,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4185,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4224,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4263,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4302,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4341,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,15 +4377,17 @@
         <v>-2204106.76862169</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>7.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+        <v>7.76</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,17 +4416,15 @@
         <v>-1937020.57412169</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>7.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>7.58</v>
+        <v>7.76</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4357,17 +4455,15 @@
         <v>-1937020.57412169</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>7.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>7.58</v>
+        <v>7.76</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -4398,15 +4494,17 @@
         <v>-1945741.72532169</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>7.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+        <v>7.76</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4435,17 +4533,15 @@
         <v>-1945731.72532169</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>7.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -4476,17 +4572,15 @@
         <v>-1949488.35332169</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>7.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -4517,17 +4611,15 @@
         <v>-1949354.98132169</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>7.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -4562,7 +4654,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4601,7 +4693,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4640,7 +4732,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4679,7 +4771,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4718,7 +4810,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4757,7 +4849,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4796,7 +4888,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -4831,13 +4923,11 @@
         <v>-1928323.69342169</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -4872,13 +4962,11 @@
         <v>-1928323.69342169</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>7.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -4913,13 +5001,11 @@
         <v>-1803705.246146569</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>7.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -4958,7 +5044,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -4993,13 +5079,11 @@
         <v>-1851929.540146569</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5034,13 +5118,11 @@
         <v>-1557637.97733782</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5075,13 +5157,11 @@
         <v>-1530018.44232169</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5120,7 +5200,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5155,13 +5235,11 @@
         <v>-1530008.44232169</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>8.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5196,13 +5274,11 @@
         <v>-1665072.31582169</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>8.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5237,23 +5313,23 @@
         <v>-1665062.31582169</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>1.056855670103093</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1.086340206185567</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5278,19 +5354,11 @@
         <v>-1670262.31582169</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="J143" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5319,19 +5387,11 @@
         <v>-1670252.31582169</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="J144" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5360,17 +5420,11 @@
         <v>-1670263.31582169</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5402,14 +5456,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5438,17 +5486,11 @@
         <v>-1641202.708421689</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5477,17 +5519,11 @@
         <v>-1641192.708421689</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5516,17 +5552,11 @@
         <v>-1641212.708421689</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5555,17 +5585,11 @@
         <v>-1641136.424821689</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5594,17 +5618,11 @@
         <v>-1478178.71635766</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5636,20 +5654,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
       <c r="M152" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest XVG.xlsx
+++ b/BackTest/2019-10-17 BackTest XVG.xlsx
@@ -649,7 +649,7 @@
         <v>-628623.4735999997</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-662919.7672999997</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-662919.7672999997</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-681049.7863999997</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-681037.7863999997</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-681037.7863999997</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-726596.6000999997</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-707307.6635999997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-740855.7270999998</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-740845.7270999998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-740845.7270999998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-740335.7270999998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-742835.7270999998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-743335.7270999998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-798205.7270999998</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-798195.7270999998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-802107.7074999998</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -3751,14 +3751,10 @@
         <v>-1760162.93612169</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="J102" t="n">
-        <v>7.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
@@ -3791,915 +3787,809 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K103" t="inlineStr">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="C104" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E104" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="F104" t="n">
+        <v>135148.6094</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1895311.54552169</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C105" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="E105" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F105" t="n">
+        <v>152158.1099</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1743153.43562169</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="C106" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="E106" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F106" t="n">
+        <v>34710.7294</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-1777864.16502169</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="E107" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F107" t="n">
+        <v>145.0484</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1777864.16502169</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C108" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E108" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1777854.16502169</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C109" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E109" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3706.9743</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1777854.16502169</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="C110" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="D110" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="E110" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="F110" t="n">
+        <v>197366.5604</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-1975220.72542169</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="C111" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D111" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="E111" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F111" t="n">
+        <v>177438.3429</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2152659.068321689</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="C112" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="E112" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F112" t="n">
+        <v>19928.2176</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2172587.28592169</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C113" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E113" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F113" t="n">
+        <v>10</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2172577.28592169</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="C114" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D114" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="E114" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F114" t="n">
+        <v>25518.7272</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2198096.01312169</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C115" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F115" t="n">
+        <v>200</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2198296.01312169</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C116" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D116" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E116" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F116" t="n">
+        <v>494.671</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-2198296.01312169</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="C117" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="E117" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4168.1728</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-2202464.185921689</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="C118" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="D118" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1642.5827</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2204106.76862169</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="J118" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="C119" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="D119" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="E119" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="F119" t="n">
+        <v>267086.1945</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1937020.57412169</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="J119" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="C104" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="D104" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="E104" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="F104" t="n">
-        <v>135148.6094</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-1895311.54552169</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="J104" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K104" t="inlineStr">
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="C120" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="D120" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="E120" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="F120" t="n">
+        <v>145985.7009</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1937020.57412169</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="E121" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8721.1512</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1945741.72532169</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E122" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1945731.72532169</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="J122" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E123" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3756.628</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1949488.35332169</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C124" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F124" t="n">
+        <v>133.372</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1949354.98132169</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="J124" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1651.0263</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1947703.95502169</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C126" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E126" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F126" t="n">
+        <v>15530.2616</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1932173.69342169</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="C105" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="D105" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="E105" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F105" t="n">
-        <v>152158.1099</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-1743153.43562169</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="C106" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="D106" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="E106" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="F106" t="n">
-        <v>34710.7294</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-1777864.16502169</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="C107" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="D107" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="E107" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="F107" t="n">
-        <v>145.0484</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-1777864.16502169</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="C108" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="D108" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E108" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="F108" t="n">
-        <v>10</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-1777854.16502169</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="J108" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="C109" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="D109" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E109" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="F109" t="n">
-        <v>3706.9743</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-1777854.16502169</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="C110" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="D110" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="E110" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="F110" t="n">
-        <v>197366.5604</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-1975220.72542169</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="C111" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="D111" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="E111" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="F111" t="n">
-        <v>177438.3429</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-2152659.068321689</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="C112" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="D112" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="E112" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="F112" t="n">
-        <v>19928.2176</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-2172587.28592169</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="C113" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="D113" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E113" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="F113" t="n">
-        <v>10</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-2172577.28592169</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="C114" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="D114" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="E114" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="F114" t="n">
-        <v>25518.7272</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-2198096.01312169</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="C115" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="D115" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E115" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F115" t="n">
-        <v>200</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-2198296.01312169</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="C116" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="D116" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E116" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F116" t="n">
-        <v>494.671</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-2198296.01312169</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="C117" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="D117" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="E117" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="F117" t="n">
-        <v>4168.1728</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-2202464.185921689</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="C118" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="D118" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="E118" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1642.5827</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-2204106.76862169</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="C119" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="D119" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="E119" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="F119" t="n">
-        <v>267086.1945</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-1937020.57412169</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="C120" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="D120" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="E120" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="F120" t="n">
-        <v>145985.7009</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-1937020.57412169</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="C121" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="D121" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="E121" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="F121" t="n">
-        <v>8721.1512</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-1945741.72532169</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="C122" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="D122" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E122" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="F122" t="n">
-        <v>10</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-1945731.72532169</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="C123" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="D123" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="E123" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="F123" t="n">
-        <v>3756.628</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-1949488.35332169</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="C124" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D124" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E124" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="F124" t="n">
-        <v>133.372</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-1949354.98132169</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="C125" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D125" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E125" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1651.0263</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-1947703.95502169</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C126" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="D126" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E126" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F126" t="n">
-        <v>15530.2616</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-1932173.69342169</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4731,9 +4621,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>7.76</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4767,12 +4655,12 @@
         <v>-1936533.69342169</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>7.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4809,9 +4697,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>7.76</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4845,12 +4731,12 @@
         <v>-1936523.69342169</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>7.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4887,9 +4773,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>7.76</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4923,12 +4807,12 @@
         <v>-1928323.69342169</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>7.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4962,12 +4846,12 @@
         <v>-1928323.69342169</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>7.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5001,12 +4885,12 @@
         <v>-1803705.246146569</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>7.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5040,12 +4924,12 @@
         <v>-1803705.246146569</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>7.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>8</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5079,12 +4963,12 @@
         <v>-1851929.540146569</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>7.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>8</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5118,12 +5002,12 @@
         <v>-1557637.97733782</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>7.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5160,9 +5044,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>7.76</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5199,9 +5081,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>7.76</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5235,12 +5115,12 @@
         <v>-1530008.44232169</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>7.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5274,12 +5154,12 @@
         <v>-1665072.31582169</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>7.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5313,23 +5193,21 @@
         <v>-1665062.31582169</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>7.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>8</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.056855670103093</v>
-      </c>
-      <c r="M142" t="n">
-        <v>1.086340206185567</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5354,11 +5232,17 @@
         <v>-1670262.31582169</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>8.24</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5387,11 +5271,17 @@
         <v>-1670252.31582169</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>7.54</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5420,11 +5310,15 @@
         <v>-1670263.31582169</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5453,11 +5347,17 @@
         <v>-1670463.31582169</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>8.19</v>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5486,11 +5386,17 @@
         <v>-1641202.708421689</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>7.65</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5519,11 +5425,17 @@
         <v>-1641192.708421689</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>7.7</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5552,11 +5464,15 @@
         <v>-1641212.708421689</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5585,11 +5501,15 @@
         <v>-1641136.424821689</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5618,11 +5538,15 @@
         <v>-1478178.71635766</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5655,7 +5579,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-17 BackTest XVG.xlsx
+++ b/BackTest/2019-10-17 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>101107.0083</v>
       </c>
       <c r="G2" t="n">
-        <v>-1272429.09294755</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>60000</v>
       </c>
       <c r="G3" t="n">
-        <v>-1272429.09294755</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>6040</v>
       </c>
       <c r="G4" t="n">
-        <v>-1266389.09294755</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>53989.74004755</v>
       </c>
       <c r="G5" t="n">
-        <v>-1212399.3529</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>94644.4629</v>
       </c>
       <c r="G6" t="n">
-        <v>-1117754.89</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>78731.6491</v>
       </c>
       <c r="G7" t="n">
-        <v>-1039023.2409</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>410399.7673</v>
       </c>
       <c r="G8" t="n">
-        <v>-628623.4735999997</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>29296.2937</v>
       </c>
       <c r="G9" t="n">
-        <v>-657919.7672999997</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>5000</v>
       </c>
       <c r="G10" t="n">
-        <v>-662919.7672999997</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>14964.1212</v>
       </c>
       <c r="G11" t="n">
-        <v>-662919.7672999997</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>14964.1212</v>
       </c>
       <c r="G12" t="n">
-        <v>-662919.7672999997</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>5000</v>
       </c>
       <c r="G13" t="n">
-        <v>-667919.7672999997</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>5000</v>
       </c>
       <c r="G14" t="n">
-        <v>-672919.7672999997</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>400</v>
       </c>
       <c r="G15" t="n">
-        <v>-673319.7672999997</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>7730.0191</v>
       </c>
       <c r="G16" t="n">
-        <v>-681049.7863999997</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>-681037.7863999997</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>30</v>
       </c>
       <c r="G18" t="n">
-        <v>-681037.7863999997</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>478.3395</v>
       </c>
       <c r="G19" t="n">
-        <v>-681037.7863999997</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>45569.8137</v>
       </c>
       <c r="G20" t="n">
-        <v>-726607.6000999997</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>469.4829</v>
       </c>
       <c r="G21" t="n">
-        <v>-726607.6000999997</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>-726596.6000999997</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>692.7063000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>-726596.6000999997</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>277</v>
       </c>
       <c r="G24" t="n">
-        <v>-726319.6000999997</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2367.317</v>
       </c>
       <c r="G25" t="n">
-        <v>-726319.6000999997</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>26491.9365</v>
       </c>
       <c r="G26" t="n">
-        <v>-699827.6635999997</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>5000</v>
       </c>
       <c r="G27" t="n">
-        <v>-704827.6635999997</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2500</v>
       </c>
       <c r="G28" t="n">
-        <v>-704827.6635999997</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2500</v>
       </c>
       <c r="G29" t="n">
-        <v>-707327.6635999997</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>-707317.6635999997</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>-707307.6635999997</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>33585.0635</v>
       </c>
       <c r="G32" t="n">
-        <v>-740892.7270999998</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>37</v>
       </c>
       <c r="G33" t="n">
-        <v>-740855.7270999998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>-740845.7270999998</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>57978.2033</v>
       </c>
       <c r="G35" t="n">
-        <v>-740845.7270999998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>392087.5109</v>
       </c>
       <c r="G36" t="n">
-        <v>-740845.7270999998</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>510</v>
       </c>
       <c r="G37" t="n">
-        <v>-740335.7270999998</v>
-      </c>
-      <c r="H37" t="n">
         <v>2</v>
       </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>2500</v>
       </c>
       <c r="G38" t="n">
-        <v>-742835.7270999998</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>500</v>
       </c>
       <c r="G39" t="n">
-        <v>-743335.7270999998</v>
-      </c>
-      <c r="H39" t="n">
         <v>2</v>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>1000</v>
       </c>
       <c r="G40" t="n">
-        <v>-744335.7270999998</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>24730</v>
       </c>
       <c r="G41" t="n">
-        <v>-769065.7270999998</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>10220</v>
       </c>
       <c r="G42" t="n">
-        <v>-779285.7270999998</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2000</v>
       </c>
       <c r="G43" t="n">
-        <v>-777285.7270999998</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>20920</v>
       </c>
       <c r="G44" t="n">
-        <v>-798205.7270999998</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>13030.2409</v>
       </c>
       <c r="G45" t="n">
-        <v>-798205.7270999998</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>-798195.7270999998</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>-798205.7270999998</v>
-      </c>
-      <c r="H47" t="n">
         <v>2</v>
       </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>-798195.7270999998</v>
-      </c>
-      <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>3911.9804</v>
       </c>
       <c r="G49" t="n">
-        <v>-802107.7074999998</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>6975</v>
       </c>
       <c r="G50" t="n">
-        <v>-795132.7074999998</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>-795122.7074999998</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>7980</v>
       </c>
       <c r="G52" t="n">
-        <v>-803102.7074999998</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>12968.523</v>
       </c>
       <c r="G53" t="n">
-        <v>-803102.7074999998</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>5000</v>
       </c>
       <c r="G54" t="n">
-        <v>-808102.7074999998</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>91</v>
       </c>
       <c r="G55" t="n">
-        <v>-808102.7074999998</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>187</v>
       </c>
       <c r="G56" t="n">
-        <v>-808289.7074999998</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>122</v>
       </c>
       <c r="G57" t="n">
-        <v>-808289.7074999998</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>-808279.7074999998</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>-808269.7074999998</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>17572.643</v>
       </c>
       <c r="G60" t="n">
-        <v>-808269.7074999998</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>9605.144578310001</v>
       </c>
       <c r="G61" t="n">
-        <v>-798664.5629216898</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>5000</v>
       </c>
       <c r="G62" t="n">
-        <v>-803664.5629216898</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>9964.8555</v>
       </c>
       <c r="G63" t="n">
-        <v>-793699.7074216899</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>162578.4489</v>
       </c>
       <c r="G64" t="n">
-        <v>-956278.1563216898</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>26451.898</v>
       </c>
       <c r="G65" t="n">
-        <v>-956278.1563216898</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>127484.4672</v>
       </c>
       <c r="G66" t="n">
-        <v>-1083762.62352169</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>30698.5154</v>
       </c>
       <c r="G67" t="n">
-        <v>-1053064.10812169</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>92068.47470000001</v>
       </c>
       <c r="G68" t="n">
-        <v>-1145132.58282169</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>14519.6385</v>
       </c>
       <c r="G69" t="n">
-        <v>-1159652.22132169</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1098.132</v>
       </c>
       <c r="G70" t="n">
-        <v>-1160750.35332169</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>77347.3419</v>
       </c>
       <c r="G71" t="n">
-        <v>-1160750.35332169</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>3217.5032</v>
       </c>
       <c r="G72" t="n">
-        <v>-1163967.85652169</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>58753.6708</v>
       </c>
       <c r="G73" t="n">
-        <v>-1105214.18572169</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>620.1713999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>-1104594.014321689</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>36980.506</v>
       </c>
       <c r="G75" t="n">
-        <v>-1104594.014321689</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>41392.4782</v>
       </c>
       <c r="G76" t="n">
-        <v>-1063201.536121689</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>344225</v>
       </c>
       <c r="G77" t="n">
-        <v>-1407426.536121689</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>20877.5617</v>
       </c>
       <c r="G78" t="n">
-        <v>-1407426.536121689</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>-1407416.536121689</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>5307.7057</v>
       </c>
       <c r="G80" t="n">
-        <v>-1407416.536121689</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>204523.0125</v>
       </c>
       <c r="G81" t="n">
-        <v>-1202893.52362169</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>280327.3367</v>
       </c>
       <c r="G82" t="n">
-        <v>-1202893.52362169</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>108567.7555</v>
       </c>
       <c r="G83" t="n">
-        <v>-1311461.279121689</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>-1311451.279121689</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>6002.4009</v>
       </c>
       <c r="G85" t="n">
-        <v>-1311451.279121689</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>111060.4573</v>
       </c>
       <c r="G86" t="n">
-        <v>-1422511.736421689</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>321173.12</v>
       </c>
       <c r="G87" t="n">
-        <v>-1743684.85642169</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>3655.3252</v>
       </c>
       <c r="G88" t="n">
-        <v>-1747340.18162169</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>5555</v>
       </c>
       <c r="G89" t="n">
-        <v>-1741785.18162169</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>22573.653</v>
       </c>
       <c r="G90" t="n">
-        <v>-1741785.18162169</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>16.2404</v>
       </c>
       <c r="G91" t="n">
-        <v>-1741801.42202169</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>25515</v>
       </c>
       <c r="G92" t="n">
-        <v>-1767316.42202169</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>2328</v>
       </c>
       <c r="G93" t="n">
-        <v>-1767316.42202169</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>25500</v>
       </c>
       <c r="G94" t="n">
-        <v>-1792816.42202169</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>154647</v>
       </c>
       <c r="G95" t="n">
-        <v>-1638169.42202169</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>127751.2599</v>
       </c>
       <c r="G96" t="n">
-        <v>-1638169.42202169</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>4258.3753</v>
       </c>
       <c r="G97" t="n">
-        <v>-1638169.42202169</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>29715.589</v>
       </c>
       <c r="G98" t="n">
-        <v>-1638169.42202169</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>42849.4385</v>
       </c>
       <c r="G99" t="n">
-        <v>-1681018.86052169</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>2000</v>
       </c>
       <c r="G100" t="n">
-        <v>-1679018.86052169</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>81144.0756</v>
       </c>
       <c r="G101" t="n">
-        <v>-1760162.93612169</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>500</v>
       </c>
       <c r="G102" t="n">
-        <v>-1760162.93612169</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>7024.9913</v>
       </c>
       <c r="G103" t="n">
-        <v>-1760162.93612169</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>135148.6094</v>
       </c>
       <c r="G104" t="n">
-        <v>-1895311.54552169</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>152158.1099</v>
       </c>
       <c r="G105" t="n">
-        <v>-1743153.43562169</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>34710.7294</v>
       </c>
       <c r="G106" t="n">
-        <v>-1777864.16502169</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>145.0484</v>
       </c>
       <c r="G107" t="n">
-        <v>-1777864.16502169</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>-1777854.16502169</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>3706.9743</v>
       </c>
       <c r="G109" t="n">
-        <v>-1777854.16502169</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>197366.5604</v>
       </c>
       <c r="G110" t="n">
-        <v>-1975220.72542169</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>177438.3429</v>
       </c>
       <c r="G111" t="n">
-        <v>-2152659.068321689</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>19928.2176</v>
       </c>
       <c r="G112" t="n">
-        <v>-2172587.28592169</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>-2172577.28592169</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>25518.7272</v>
       </c>
       <c r="G114" t="n">
-        <v>-2198096.01312169</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>200</v>
       </c>
       <c r="G115" t="n">
-        <v>-2198296.01312169</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>494.671</v>
       </c>
       <c r="G116" t="n">
-        <v>-2198296.01312169</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>4168.1728</v>
       </c>
       <c r="G117" t="n">
-        <v>-2202464.185921689</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,22 +3923,15 @@
         <v>1642.5827</v>
       </c>
       <c r="G118" t="n">
-        <v>-2204106.76862169</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="J118" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4313,98 +3953,95 @@
         <v>267086.1945</v>
       </c>
       <c r="G119" t="n">
-        <v>-1937020.57412169</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>7.55</v>
       </c>
       <c r="I119" t="n">
         <v>7.55</v>
       </c>
-      <c r="J119" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="K119" t="inlineStr">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="C120" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="D120" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="E120" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="F120" t="n">
+        <v>145985.7009</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="I120" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="J120" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="E121" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8721.1512</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
         <v>7.63</v>
       </c>
-      <c r="C120" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="D120" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="E120" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="F120" t="n">
-        <v>145985.7009</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-1937020.57412169</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="K120" t="inlineStr">
+      <c r="I121" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="J121" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="C121" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="D121" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="E121" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="F121" t="n">
-        <v>8721.1512</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-1945741.72532169</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4426,22 +4063,19 @@
         <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>-1945731.72532169</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>7.53</v>
       </c>
       <c r="I122" t="n">
         <v>7.53</v>
       </c>
-      <c r="J122" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4463,24 +4097,21 @@
         <v>3756.628</v>
       </c>
       <c r="G123" t="n">
-        <v>-1949488.35332169</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
         <v>7.53</v>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4502,26 +4133,21 @@
         <v>133.372</v>
       </c>
       <c r="G124" t="n">
-        <v>-1949354.98132169</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="J124" t="n">
         <v>7.53</v>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4543,18 +4169,15 @@
         <v>1651.0263</v>
       </c>
       <c r="G125" t="n">
-        <v>-1947703.95502169</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4576,24 +4199,15 @@
         <v>15530.2616</v>
       </c>
       <c r="G126" t="n">
-        <v>-1932173.69342169</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4615,22 +4229,15 @@
         <v>4360</v>
       </c>
       <c r="G127" t="n">
-        <v>-1936533.69342169</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4652,24 +4259,15 @@
         <v>4360</v>
       </c>
       <c r="G128" t="n">
-        <v>-1936533.69342169</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4691,22 +4289,15 @@
         <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>-1936523.69342169</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4728,24 +4319,15 @@
         <v>10000</v>
       </c>
       <c r="G130" t="n">
-        <v>-1936523.69342169</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4767,22 +4349,15 @@
         <v>1775.706</v>
       </c>
       <c r="G131" t="n">
-        <v>-1936523.69342169</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4804,24 +4379,15 @@
         <v>8200</v>
       </c>
       <c r="G132" t="n">
-        <v>-1928323.69342169</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4843,24 +4409,15 @@
         <v>15418.8131</v>
       </c>
       <c r="G133" t="n">
-        <v>-1928323.69342169</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>7.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4882,24 +4439,15 @@
         <v>124618.44727512</v>
       </c>
       <c r="G134" t="n">
-        <v>-1803705.246146569</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>7.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4921,24 +4469,15 @@
         <v>51363.625</v>
       </c>
       <c r="G135" t="n">
-        <v>-1803705.246146569</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4960,24 +4499,15 @@
         <v>48224.294</v>
       </c>
       <c r="G136" t="n">
-        <v>-1851929.540146569</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4999,24 +4529,15 @@
         <v>294291.56280875</v>
       </c>
       <c r="G137" t="n">
-        <v>-1557637.97733782</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5038,22 +4559,15 @@
         <v>27619.53501613</v>
       </c>
       <c r="G138" t="n">
-        <v>-1530018.44232169</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5075,22 +4589,15 @@
         <v>11635.7369</v>
       </c>
       <c r="G139" t="n">
-        <v>-1530018.44232169</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5112,24 +4619,15 @@
         <v>10</v>
       </c>
       <c r="G140" t="n">
-        <v>-1530008.44232169</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>8.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5151,24 +4649,15 @@
         <v>135063.8735</v>
       </c>
       <c r="G141" t="n">
-        <v>-1665072.31582169</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>8.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5190,24 +4679,15 @@
         <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>-1665062.31582169</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5229,24 +4709,15 @@
         <v>5200</v>
       </c>
       <c r="G143" t="n">
-        <v>-1670262.31582169</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>8.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5268,24 +4739,15 @@
         <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>-1670252.31582169</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>7.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5307,22 +4769,15 @@
         <v>11</v>
       </c>
       <c r="G145" t="n">
-        <v>-1670263.31582169</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5344,24 +4799,15 @@
         <v>200</v>
       </c>
       <c r="G146" t="n">
-        <v>-1670463.31582169</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>8.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5383,24 +4829,15 @@
         <v>29260.6074</v>
       </c>
       <c r="G147" t="n">
-        <v>-1641202.708421689</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>7.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5422,24 +4859,15 @@
         <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>-1641192.708421689</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>7.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5461,22 +4889,15 @@
         <v>20</v>
       </c>
       <c r="G149" t="n">
-        <v>-1641212.708421689</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5498,22 +4919,15 @@
         <v>76.28360000000001</v>
       </c>
       <c r="G150" t="n">
-        <v>-1641136.424821689</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5535,22 +4949,15 @@
         <v>162957.70846403</v>
       </c>
       <c r="G151" t="n">
-        <v>-1478178.71635766</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5572,22 +4979,15 @@
         <v>3747.2365</v>
       </c>
       <c r="G152" t="n">
-        <v>-1481925.95285766</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
